--- a/AGENDA PADRAO.xlsx
+++ b/AGENDA PADRAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0227D1A3-33AB-42AD-A8A2-21DDFF91D16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5730E7B1-DD8C-48E5-B476-4D36162F6D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENDA" sheetId="1" r:id="rId1"/>
@@ -25,45 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
-  <si>
-    <t>Montagem: 13:30
-Início: 14:30</t>
-  </si>
-  <si>
-    <t>Culto Maturidade 60+ | Rede Fmília</t>
-  </si>
-  <si>
-    <t>Auditório</t>
-  </si>
-  <si>
-    <t>2º Andar</t>
-  </si>
-  <si>
-    <t>02 Microfones + 2 Instrumentos + P2</t>
-  </si>
-  <si>
-    <t>Tecnico de apoio:
-Marlon</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Reunião Adoração</t>
-  </si>
-  <si>
-    <t>Sala de Reunião</t>
-  </si>
-  <si>
-    <t>Sub solo Templo</t>
-  </si>
-  <si>
-    <t>Junão</t>
-  </si>
-  <si>
-    <t>PERÍODO DA TARDE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Início</t>
   </si>
@@ -90,13 +52,19 @@
     <t>Responsável</t>
   </si>
   <si>
-    <t>PERÍODO DA NOITE</t>
-  </si>
-  <si>
     <t>Folga: Lucas, Jordan e Davi</t>
   </si>
   <si>
     <t>AGENDA  ?(?)</t>
+  </si>
+  <si>
+    <t>PERÍODO DA MANHÃ</t>
+  </si>
+  <si>
+    <t>PERÍODO DA TARDE</t>
+  </si>
+  <si>
+    <t>PERÍODO DA NOITE</t>
   </si>
 </sst>
 </file>
@@ -106,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -121,23 +89,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -170,7 +121,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,12 +132,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -208,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -245,21 +190,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -327,83 +257,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,17 +283,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,272 +510,949 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="39.85546875" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="33.75" hidden="1" customHeight="1">
-      <c r="A2" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="33.75" hidden="1" customHeight="1">
-      <c r="A3" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="36" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="36" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="36" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="36" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="36" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="36" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="36" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="36" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="36" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="36" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="36" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="36" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="36" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="36" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="36" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="36" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="36" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="36" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="36" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="36" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="36" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="36" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="36" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="36" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="36" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="36" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="36" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="36" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="36" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="36" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="36" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="36" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="36" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="36" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="36" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="36" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="36" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="36" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="36" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="36" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="36" customHeight="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" ht="36" customHeight="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" ht="36" customHeight="1">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" ht="36" customHeight="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="36" customHeight="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" ht="36" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" ht="36" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" ht="36" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" ht="36" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" ht="36" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" ht="36" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="36" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" ht="36" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" ht="36" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="36" customHeight="1">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" ht="36" customHeight="1">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" ht="36" customHeight="1">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="36" customHeight="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" ht="36" customHeight="1">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" ht="36" customHeight="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" ht="36" customHeight="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" ht="36" customHeight="1">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" ht="36" customHeight="1">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" ht="36" customHeight="1">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" ht="36" customHeight="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" ht="36" customHeight="1">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" ht="36" customHeight="1">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" ht="36" customHeight="1">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" ht="36" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" ht="36" customHeight="1">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" ht="36" customHeight="1">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" ht="36" customHeight="1">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" ht="36" customHeight="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" ht="36" customHeight="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" ht="36" customHeight="1">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" ht="36" customHeight="1">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A86" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="36" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="36" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="36" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="36" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="36" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" ht="36" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A62:H62"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.19064532694282782" header="0" footer="0"/>
